--- a/Code/Results/Cases/Case_1_229/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_229/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2891473625010548</v>
+        <v>0.1028208879615562</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.06715041639469632</v>
+        <v>0.02294331548571904</v>
       </c>
       <c r="E2">
-        <v>0.2666776590401128</v>
+        <v>0.1597174178937735</v>
       </c>
       <c r="F2">
-        <v>0.3254147209225735</v>
+        <v>0.4349732476443577</v>
       </c>
       <c r="G2">
-        <v>0.2198086187259918</v>
+        <v>0.2809637316095177</v>
       </c>
       <c r="H2">
-        <v>0.1926389792644656</v>
+        <v>0.4531015744136511</v>
       </c>
       <c r="I2">
-        <v>0.1888902197384108</v>
+        <v>0.4206328855603294</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.86878833723452</v>
+        <v>0.6004826738355575</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.7775169788952283</v>
+        <v>0.2605831874329567</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.8198416710479819</v>
+        <v>1.391853284685638</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2518482430556759</v>
+        <v>0.0908534429512855</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.05911514640227722</v>
+        <v>0.0202945348015291</v>
       </c>
       <c r="E3">
-        <v>0.2340543162376605</v>
+        <v>0.1526160146998379</v>
       </c>
       <c r="F3">
-        <v>0.3023153848701057</v>
+        <v>0.4334557073628815</v>
       </c>
       <c r="G3">
-        <v>0.2051832368724007</v>
+        <v>0.2807243280695673</v>
       </c>
       <c r="H3">
-        <v>0.1913808669222306</v>
+        <v>0.4565789266322682</v>
       </c>
       <c r="I3">
-        <v>0.2036649755061379</v>
+        <v>0.4280947762624741</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.651371213911318</v>
+        <v>0.5290296786291719</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.674274559642619</v>
+        <v>0.2301024919045318</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.7858582910053684</v>
+        <v>1.398379298319711</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2289331192725257</v>
+        <v>0.08349532691781292</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.05417015422017357</v>
+        <v>0.01865918263953859</v>
       </c>
       <c r="E4">
-        <v>0.2145773892509339</v>
+        <v>0.1484061344740084</v>
       </c>
       <c r="F4">
-        <v>0.2888919507329675</v>
+        <v>0.4328665598086232</v>
       </c>
       <c r="G4">
-        <v>0.1968889973454111</v>
+        <v>0.2808488537790623</v>
       </c>
       <c r="H4">
-        <v>0.191049577231496</v>
+        <v>0.4589598735723328</v>
       </c>
       <c r="I4">
-        <v>0.2132846625355267</v>
+        <v>0.4329459659046506</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.517686273359914</v>
+        <v>0.4849356880245637</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.6111833514917393</v>
+        <v>0.2113997324883883</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.7673612527620719</v>
+        <v>1.403467984380228</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2195897113167433</v>
+        <v>0.08049454096725128</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.05215185440506787</v>
+        <v>0.01799054525110932</v>
       </c>
       <c r="E5">
-        <v>0.2067667203816086</v>
+        <v>0.1467281407099392</v>
       </c>
       <c r="F5">
-        <v>0.2836016232161995</v>
+        <v>0.4327125578546571</v>
       </c>
       <c r="G5">
-        <v>0.1936708246116439</v>
+        <v>0.2809677101476566</v>
       </c>
       <c r="H5">
-        <v>0.1910208273900693</v>
+        <v>0.4599919470469089</v>
       </c>
       <c r="I5">
-        <v>0.2173387607818098</v>
+        <v>0.4349906256195148</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1.463148857966473</v>
+        <v>0.4669125276632258</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.5855339978530054</v>
+        <v>0.2037814901906216</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.7603868179582776</v>
+        <v>1.405813309202372</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2180378700342231</v>
+        <v>0.07999613113018711</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.05181651614267224</v>
+        <v>0.01787938580648785</v>
       </c>
       <c r="E6">
-        <v>0.2054770300103073</v>
+        <v>0.1464517725870564</v>
       </c>
       <c r="F6">
-        <v>0.2827337122780875</v>
+        <v>0.432692182754586</v>
       </c>
       <c r="G6">
-        <v>0.1931459195719398</v>
+        <v>0.2809915550580158</v>
       </c>
       <c r="H6">
-        <v>0.1910223380326244</v>
+        <v>0.4601670557400084</v>
       </c>
       <c r="I6">
-        <v>0.2180199260624276</v>
+        <v>0.4353342317340179</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1.454089021866821</v>
+        <v>0.4639165396782232</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.5812782043822011</v>
+        <v>0.2025166893212358</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.7592618186926785</v>
+        <v>1.406219144804183</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2288071348015563</v>
+        <v>0.08345486624457976</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.05414294800521446</v>
+        <v>0.01865017408599101</v>
       </c>
       <c r="E7">
-        <v>0.2144715569072986</v>
+        <v>0.1483833526949923</v>
       </c>
       <c r="F7">
-        <v>0.2888198898112293</v>
+        <v>0.4328641344497015</v>
       </c>
       <c r="G7">
-        <v>0.1968449545485669</v>
+        <v>0.2808501811579589</v>
       </c>
       <c r="H7">
-        <v>0.1910487653196853</v>
+        <v>0.4589735421763024</v>
       </c>
       <c r="I7">
-        <v>0.2133387998576166</v>
+        <v>0.4329732665695594</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1.516951019683717</v>
+        <v>0.4846928404423068</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.6108372077795892</v>
+        <v>0.2112969767269206</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.767264954218092</v>
+        <v>1.403498514848252</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2762881587784705</v>
+        <v>0.09869673702280579</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.06438199244199438</v>
+        <v>0.02203190653815312</v>
       </c>
       <c r="E8">
-        <v>0.2553061289111227</v>
+        <v>0.1572374804969456</v>
       </c>
       <c r="F8">
-        <v>0.3172855017321297</v>
+        <v>0.4343788396522257</v>
       </c>
       <c r="G8">
-        <v>0.2146168758663052</v>
+        <v>0.2808247311294139</v>
       </c>
       <c r="H8">
-        <v>0.1921107192697349</v>
+        <v>0.4542495415058596</v>
       </c>
       <c r="I8">
-        <v>0.1938685124290109</v>
+        <v>0.4231497860354567</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.793854816396305</v>
+        <v>0.5758923711019577</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.7418476214790317</v>
+        <v>0.2500709203067615</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.8076125378096322</v>
+        <v>1.393878733997113</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.3693919147814597</v>
+        <v>0.1284973507118679</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.08438801139770646</v>
+        <v>0.0285905711817378</v>
       </c>
       <c r="E9">
-        <v>0.3404031429057355</v>
+        <v>0.1758063890879882</v>
       </c>
       <c r="F9">
-        <v>0.3796674247484404</v>
+        <v>0.4400721224626807</v>
       </c>
       <c r="G9">
-        <v>0.2554166061437044</v>
+        <v>0.2829371628452151</v>
       </c>
       <c r="H9">
-        <v>0.1979170822366498</v>
+        <v>0.446936576954208</v>
       </c>
       <c r="I9">
-        <v>0.1602117036310089</v>
+        <v>0.4060255309874505</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>2.335963341562433</v>
+        <v>0.7529314564872038</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.001854271405989</v>
+        <v>0.3262035431604247</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.9070740698169573</v>
+        <v>1.383614539484284</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.4379452446198115</v>
+        <v>0.1503280676075747</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.09906859299042026</v>
+        <v>0.03336310864197856</v>
       </c>
       <c r="E10">
-        <v>0.4069199124046747</v>
+        <v>0.1902030479960715</v>
       </c>
       <c r="F10">
-        <v>0.4302857996959304</v>
+        <v>0.4459222927189046</v>
       </c>
       <c r="G10">
-        <v>0.2897669676932253</v>
+        <v>0.2858191153492129</v>
       </c>
       <c r="H10">
-        <v>0.2047819657912981</v>
+        <v>0.4427534781430751</v>
       </c>
       <c r="I10">
-        <v>0.138497679444141</v>
+        <v>0.3947493094137942</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>2.734652064383738</v>
+        <v>0.8818548959150405</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.195848623531901</v>
+        <v>0.3822000098169411</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.9948237452936723</v>
+        <v>1.381342580843352</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.4692015868318578</v>
+        <v>0.1602436500909192</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.1057496617525544</v>
+        <v>0.03552391845624925</v>
       </c>
       <c r="E11">
-        <v>0.4382737937034875</v>
+        <v>0.1969203447432335</v>
       </c>
       <c r="F11">
-        <v>0.4545390951520574</v>
+        <v>0.4489473689751975</v>
       </c>
       <c r="G11">
-        <v>0.306521367590932</v>
+        <v>0.2874215255791626</v>
       </c>
       <c r="H11">
-        <v>0.2085474212732095</v>
+        <v>0.4411089459119353</v>
       </c>
       <c r="I11">
-        <v>0.1293334904838215</v>
+        <v>0.3899029553995907</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>2.916344950512439</v>
+        <v>0.9402470342642459</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.285007092763763</v>
+        <v>0.4076886010403484</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.038470212520252</v>
+        <v>1.38145890488326</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.4810509488113297</v>
+        <v>0.163996012638961</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.1082805478555571</v>
+        <v>0.0363406504953474</v>
       </c>
       <c r="E12">
-        <v>0.4503246261080136</v>
+        <v>0.1994884954958493</v>
       </c>
       <c r="F12">
-        <v>0.4639161818994211</v>
+        <v>0.4501453049877924</v>
       </c>
       <c r="G12">
-        <v>0.3130439411409185</v>
+        <v>0.28807040806619</v>
       </c>
       <c r="H12">
-        <v>0.2100727063456844</v>
+        <v>0.4405233680263052</v>
       </c>
       <c r="I12">
-        <v>0.1259712104601483</v>
+        <v>0.3881085240978766</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>2.985214585512324</v>
+        <v>0.9623207818058859</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.318923171872285</v>
+        <v>0.4173426438455436</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.055582519020192</v>
+        <v>1.381668726217185</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.4784983360095794</v>
+        <v>0.1631879873116162</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.107735427282833</v>
+        <v>0.03616482097658036</v>
       </c>
       <c r="E13">
-        <v>0.4477210144056301</v>
+        <v>0.1989343062618047</v>
       </c>
       <c r="F13">
-        <v>0.4618878049734931</v>
+        <v>0.4498849758677608</v>
       </c>
       <c r="G13">
-        <v>0.3116310059878629</v>
+        <v>0.2879287850065424</v>
       </c>
       <c r="H13">
-        <v>0.2097396720368607</v>
+        <v>0.4406478292673484</v>
       </c>
       <c r="I13">
-        <v>0.1266904452074651</v>
+        <v>0.3884931726479386</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>2.97037899427616</v>
+        <v>0.9575685200358635</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.311611516508435</v>
+        <v>0.41526338370997</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.051870285954976</v>
+        <v>1.381616157953545</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.4701761569469056</v>
+        <v>0.1605524098143007</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.1059578579911289</v>
+        <v>0.03559114221984316</v>
       </c>
       <c r="E14">
-        <v>0.4392615371762219</v>
+        <v>0.1971311363570791</v>
       </c>
       <c r="F14">
-        <v>0.4553065894423085</v>
+        <v>0.4490448730982735</v>
       </c>
       <c r="G14">
-        <v>0.3070543208424965</v>
+        <v>0.2874740650570828</v>
       </c>
       <c r="H14">
-        <v>0.2086708737193845</v>
+        <v>0.4410600250173644</v>
       </c>
       <c r="I14">
-        <v>0.1290546772509527</v>
+        <v>0.3897545089446761</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>2.922009447529831</v>
+        <v>0.9420638255623714</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.287794170661527</v>
+        <v>0.4084828044802578</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.039866053382156</v>
+        <v>1.381472842271108</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.465080403291168</v>
+        <v>0.1589377155893885</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.1048691797248864</v>
+        <v>0.03523954810584939</v>
       </c>
       <c r="E15">
-        <v>0.4341036495418606</v>
+        <v>0.1960298357060211</v>
       </c>
       <c r="F15">
-        <v>0.4513010334860468</v>
+        <v>0.4485371132732396</v>
       </c>
       <c r="G15">
-        <v>0.3042746438824508</v>
+        <v>0.2872010219862347</v>
       </c>
       <c r="H15">
-        <v>0.2080293629862808</v>
+        <v>0.4413173480225794</v>
       </c>
       <c r="I15">
-        <v>0.1305170675083511</v>
+        <v>0.3905324256865623</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>2.89239096483243</v>
+        <v>0.9325617536523509</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.273226087084709</v>
+        <v>0.4043297681443647</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.032590699102144</v>
+        <v>1.38140665823633</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.4359042546197571</v>
+        <v>0.1496797312675255</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.09863206834720728</v>
+        <v>0.03322168453372853</v>
       </c>
       <c r="E16">
-        <v>0.4048945983049421</v>
+        <v>0.1897674643758265</v>
       </c>
       <c r="F16">
-        <v>0.4287268588503323</v>
+        <v>0.445731925331927</v>
       </c>
       <c r="G16">
-        <v>0.2886960576640405</v>
+        <v>0.2857202733019335</v>
       </c>
       <c r="H16">
-        <v>0.2045494009830975</v>
+        <v>0.442866152835407</v>
       </c>
       <c r="I16">
-        <v>0.1391113935301207</v>
+        <v>0.3950717337977614</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>2.722786217310329</v>
+        <v>0.87803357350532</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.190042126394502</v>
+        <v>0.3805345685856594</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.9920504173436768</v>
+        <v>1.381358153107129</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.4180259352479112</v>
+        <v>0.1439961554062563</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.09480686942472261</v>
+        <v>0.03198113403332314</v>
       </c>
       <c r="E17">
-        <v>0.3872702148343308</v>
+        <v>0.1859689717711532</v>
       </c>
       <c r="F17">
-        <v>0.4152039135902541</v>
+        <v>0.4441042774382922</v>
       </c>
       <c r="G17">
-        <v>0.2794389752196622</v>
+        <v>0.2848866454176289</v>
       </c>
       <c r="H17">
-        <v>0.2025839573627906</v>
+        <v>0.4438824832451758</v>
       </c>
       <c r="I17">
-        <v>0.1445702412670293</v>
+        <v>0.3979290334934285</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>2.618836358086753</v>
+        <v>0.8445158574663481</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.139260134692087</v>
+        <v>0.3659408413753056</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.9681684975447524</v>
+        <v>1.381623204216339</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.4077492950747796</v>
+        <v>0.140725685779671</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.09260694706449613</v>
+        <v>0.03126664103413646</v>
       </c>
       <c r="E18">
-        <v>0.3772348972366615</v>
+        <v>0.183799993393535</v>
       </c>
       <c r="F18">
-        <v>0.4075402887613535</v>
+        <v>0.4432023350968848</v>
       </c>
       <c r="G18">
-        <v>0.2742197331773468</v>
+        <v>0.2844345814359031</v>
       </c>
       <c r="H18">
-        <v>0.2015135232032605</v>
+        <v>0.4444913686483645</v>
       </c>
       <c r="I18">
-        <v>0.1477768559726984</v>
+        <v>0.3995991353114978</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>2.55907670884028</v>
+        <v>0.8252133561054507</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.110135801721079</v>
+        <v>0.3575483859152371</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.9547801370168827</v>
+        <v>1.381883858662576</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.4042708279131944</v>
+        <v>0.1396181234974421</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.09186211591641325</v>
+        <v>0.03102456233528983</v>
       </c>
       <c r="E19">
-        <v>0.3738539960471385</v>
+        <v>0.1830683223905822</v>
       </c>
       <c r="F19">
-        <v>0.4049646838117482</v>
+        <v>0.4429028304847122</v>
       </c>
       <c r="G19">
-        <v>0.2724701895792236</v>
+        <v>0.2842862236155526</v>
       </c>
       <c r="H19">
-        <v>0.201161199015786</v>
+        <v>0.4447017031143048</v>
       </c>
       <c r="I19">
-        <v>0.1488738798868834</v>
+        <v>0.4001691803368033</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>2.53884763001443</v>
+        <v>0.8186737791294547</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.100288582841301</v>
+        <v>0.3547071022779917</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.9503054050672404</v>
+        <v>1.381990682932212</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.4199284191920896</v>
+        <v>0.144601331277542</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.09521404091947971</v>
+        <v>0.0321132925695693</v>
       </c>
       <c r="E20">
-        <v>0.3891356865969726</v>
+        <v>0.1863716891261689</v>
       </c>
       <c r="F20">
-        <v>0.4166314967521885</v>
+        <v>0.444273999202224</v>
       </c>
       <c r="G20">
-        <v>0.2804134099948925</v>
+        <v>0.2849725476759914</v>
       </c>
       <c r="H20">
-        <v>0.202786919532258</v>
+        <v>0.4437717760926745</v>
       </c>
       <c r="I20">
-        <v>0.1439821830022949</v>
+        <v>0.397622109665428</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>2.629898803169567</v>
+        <v>0.8480863687086924</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.144657097515399</v>
+        <v>0.3674942175625731</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0.9706744253953161</v>
+        <v>1.381583787268738</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.4726201973688688</v>
+        <v>0.1613266113845384</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.1064799442450237</v>
+        <v>0.03575968719670186</v>
       </c>
       <c r="E21">
-        <v>0.4417412949572324</v>
+        <v>0.1976601051691489</v>
       </c>
       <c r="F21">
-        <v>0.4572342799669613</v>
+        <v>0.4492902086670085</v>
       </c>
       <c r="G21">
-        <v>0.3083936406076475</v>
+        <v>0.2876064837224561</v>
       </c>
       <c r="H21">
-        <v>0.2089820501807509</v>
+        <v>0.4409379442022612</v>
       </c>
       <c r="I21">
-        <v>0.1283572694425978</v>
+        <v>0.3893829168341871</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>2.936214788926776</v>
+        <v>0.946618974248338</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.294785539124661</v>
+        <v>0.4104743701930147</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.043375728117411</v>
+        <v>1.381510435186698</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.5071362020790104</v>
+        <v>0.1722431335039687</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.113848431839827</v>
+        <v>0.03813393686257882</v>
       </c>
       <c r="E22">
-        <v>0.4771691157978637</v>
+        <v>0.2051804132196295</v>
       </c>
       <c r="F22">
-        <v>0.4849033409503534</v>
+        <v>0.4528740905994368</v>
       </c>
       <c r="G22">
-        <v>0.3277262783672512</v>
+        <v>0.2895732974638605</v>
       </c>
       <c r="H22">
-        <v>0.2136138450608485</v>
+        <v>0.4393025383601952</v>
       </c>
       <c r="I22">
-        <v>0.1187777204044282</v>
+        <v>0.3842358336755511</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>3.136807687129021</v>
+        <v>1.010793120207552</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.393811052673584</v>
+        <v>0.4385763532617091</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.09432103275023</v>
+        <v>1.382428936076565</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.4887060801939214</v>
+        <v>0.1664181816025234</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.1099150443881456</v>
+        <v>0.03686758318411876</v>
       </c>
       <c r="E23">
-        <v>0.4581576562532277</v>
+        <v>0.201153538805336</v>
       </c>
       <c r="F23">
-        <v>0.4700264437224391</v>
+        <v>0.4509333226352226</v>
       </c>
       <c r="G23">
-        <v>0.3173068652110942</v>
+        <v>0.2885010594498283</v>
       </c>
       <c r="H23">
-        <v>0.2110859926869466</v>
+        <v>0.4401555549180358</v>
       </c>
       <c r="I23">
-        <v>0.1238307938379637</v>
+        <v>0.3869611634883561</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>3.029704255292472</v>
+        <v>0.9765629695094162</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.34086813215535</v>
+        <v>0.4235767552937517</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.066799836247185</v>
+        <v>1.381850145884698</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.4190683006851543</v>
+        <v>0.1443277402998433</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.09502996110612827</v>
+        <v>0.03205354769110613</v>
       </c>
       <c r="E24">
-        <v>0.3882920056506975</v>
+        <v>0.1861895744519444</v>
       </c>
       <c r="F24">
-        <v>0.4159857422199593</v>
+        <v>0.4441971626712089</v>
       </c>
       <c r="G24">
-        <v>0.2799725490845333</v>
+        <v>0.284933626553169</v>
       </c>
       <c r="H24">
-        <v>0.202694975449063</v>
+        <v>0.443821750220863</v>
       </c>
       <c r="I24">
-        <v>0.1442478319621974</v>
+        <v>0.3977607845762203</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>2.624897465378126</v>
+        <v>0.8464722423972546</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.142216911463045</v>
+        <v>0.3667919434285665</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0.9695404347793328</v>
+        <v>1.381601270438296</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.3441903121063348</v>
+        <v>0.1204459984245432</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.07898100640939276</v>
+        <v>0.02682425620974271</v>
       </c>
       <c r="E25">
-        <v>0.3167522469441053</v>
+        <v>0.1706519454576849</v>
       </c>
       <c r="F25">
-        <v>0.3620107542909636</v>
+        <v>0.4382396649420883</v>
       </c>
       <c r="G25">
-        <v>0.2436679051518595</v>
+        <v>0.282132983732609</v>
       </c>
       <c r="H25">
-        <v>0.1959149541512346</v>
+        <v>0.448706032422038</v>
       </c>
       <c r="I25">
-        <v>0.1688068628000141</v>
+        <v>0.4104289768271001</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>2.189311228637138</v>
+        <v>0.7052357031759016</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.9310773697018391</v>
+        <v>0.3055969885380421</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0.8777632577939727</v>
+        <v>1.385467845242147</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_229/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_229/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1028208879615562</v>
+        <v>0.2891473625010406</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.02294331548571904</v>
+        <v>0.06715041639458263</v>
       </c>
       <c r="E2">
-        <v>0.1597174178937735</v>
+        <v>0.2666776590401412</v>
       </c>
       <c r="F2">
-        <v>0.4349732476443577</v>
+        <v>0.3254147209225735</v>
       </c>
       <c r="G2">
-        <v>0.2809637316095177</v>
+        <v>0.2198086187259847</v>
       </c>
       <c r="H2">
-        <v>0.4531015744136511</v>
+        <v>0.1926389792643377</v>
       </c>
       <c r="I2">
-        <v>0.4206328855603294</v>
+        <v>0.1888902197384108</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.6004826738355575</v>
+        <v>1.868788337234548</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.2605831874329567</v>
+        <v>0.7775169788952283</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.391853284685638</v>
+        <v>0.8198416710479677</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.0908534429512855</v>
+        <v>0.2518482430555622</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.0202945348015291</v>
+        <v>0.05911514640220616</v>
       </c>
       <c r="E3">
-        <v>0.1526160146998379</v>
+        <v>0.2340543162376605</v>
       </c>
       <c r="F3">
-        <v>0.4334557073628815</v>
+        <v>0.3023153848701199</v>
       </c>
       <c r="G3">
-        <v>0.2807243280695673</v>
+        <v>0.2051832368723865</v>
       </c>
       <c r="H3">
-        <v>0.4565789266322682</v>
+        <v>0.1913808669222306</v>
       </c>
       <c r="I3">
-        <v>0.4280947762624741</v>
+        <v>0.2036649755061504</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.5290296786291719</v>
+        <v>1.651371213911375</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.2301024919045318</v>
+        <v>0.6742745596426403</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.398379298319711</v>
+        <v>0.7858582910054395</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.08349532691781292</v>
+        <v>0.228933119272412</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.01865918263953859</v>
+        <v>0.05417015422015936</v>
       </c>
       <c r="E4">
-        <v>0.1484061344740084</v>
+        <v>0.2145773892509197</v>
       </c>
       <c r="F4">
-        <v>0.4328665598086232</v>
+        <v>0.2888919507329533</v>
       </c>
       <c r="G4">
-        <v>0.2808488537790623</v>
+        <v>0.1968889973454111</v>
       </c>
       <c r="H4">
-        <v>0.4589598735723328</v>
+        <v>0.1910495772316096</v>
       </c>
       <c r="I4">
-        <v>0.4329459659046506</v>
+        <v>0.2132846625355265</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.4849356880245637</v>
+        <v>1.517686273359885</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.2113997324883883</v>
+        <v>0.6111833514917393</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.403467984380228</v>
+        <v>0.7673612527620151</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.08049454096725128</v>
+        <v>0.2195897113166438</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.01799054525110932</v>
+        <v>0.05215185440507497</v>
       </c>
       <c r="E5">
-        <v>0.1467281407099392</v>
+        <v>0.206766720381637</v>
       </c>
       <c r="F5">
-        <v>0.4327125578546571</v>
+        <v>0.2836016232161995</v>
       </c>
       <c r="G5">
-        <v>0.2809677101476566</v>
+        <v>0.1936708246115799</v>
       </c>
       <c r="H5">
-        <v>0.4599919470469089</v>
+        <v>0.1910208273900693</v>
       </c>
       <c r="I5">
-        <v>0.4349906256195148</v>
+        <v>0.2173387607818102</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.4669125276632258</v>
+        <v>1.463148857966615</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.2037814901906216</v>
+        <v>0.5855339978530054</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.405813309202372</v>
+        <v>0.7603868179582634</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.07999613113018711</v>
+        <v>0.218037870034081</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01787938580648785</v>
+        <v>0.05181651614267224</v>
       </c>
       <c r="E6">
-        <v>0.1464517725870564</v>
+        <v>0.2054770300103144</v>
       </c>
       <c r="F6">
-        <v>0.432692182754586</v>
+        <v>0.2827337122780875</v>
       </c>
       <c r="G6">
-        <v>0.2809915550580158</v>
+        <v>0.1931459195718546</v>
       </c>
       <c r="H6">
-        <v>0.4601670557400084</v>
+        <v>0.1910223380326244</v>
       </c>
       <c r="I6">
-        <v>0.4353342317340179</v>
+        <v>0.2180199260624129</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.4639165396782232</v>
+        <v>1.454089021866821</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.2025166893212358</v>
+        <v>0.5812782043822082</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.406219144804183</v>
+        <v>0.7592618186926643</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.08345486624457976</v>
+        <v>0.2288071348015563</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01865017408599101</v>
+        <v>0.05414294800532815</v>
       </c>
       <c r="E7">
-        <v>0.1483833526949923</v>
+        <v>0.214471556907327</v>
       </c>
       <c r="F7">
-        <v>0.4328641344497015</v>
+        <v>0.2888198898112151</v>
       </c>
       <c r="G7">
-        <v>0.2808501811579589</v>
+        <v>0.1968449545486095</v>
       </c>
       <c r="H7">
-        <v>0.4589735421763024</v>
+        <v>0.1910487653196853</v>
       </c>
       <c r="I7">
-        <v>0.4329732665695594</v>
+        <v>0.2133387998576182</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.4846928404423068</v>
+        <v>1.516951019683745</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.2112969767269206</v>
+        <v>0.6108372077795892</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.403498514848252</v>
+        <v>0.767264954218092</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.09869673702280579</v>
+        <v>0.2762881587783426</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02203190653815312</v>
+        <v>0.0643819924421507</v>
       </c>
       <c r="E8">
-        <v>0.1572374804969456</v>
+        <v>0.2553061289111582</v>
       </c>
       <c r="F8">
-        <v>0.4343788396522257</v>
+        <v>0.3172855017321297</v>
       </c>
       <c r="G8">
-        <v>0.2808247311294139</v>
+        <v>0.2146168758662412</v>
       </c>
       <c r="H8">
-        <v>0.4542495415058596</v>
+        <v>0.1921107192698486</v>
       </c>
       <c r="I8">
-        <v>0.4231497860354567</v>
+        <v>0.1938685124290127</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.5758923711019577</v>
+        <v>1.793854816396333</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.2500709203067615</v>
+        <v>0.7418476214790317</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.393878733997113</v>
+        <v>0.8076125378096179</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1284973507118679</v>
+        <v>0.3693919147815734</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.0285905711817378</v>
+        <v>0.08438801139782726</v>
       </c>
       <c r="E9">
-        <v>0.1758063890879882</v>
+        <v>0.3404031429057142</v>
       </c>
       <c r="F9">
-        <v>0.4400721224626807</v>
+        <v>0.3796674247484475</v>
       </c>
       <c r="G9">
-        <v>0.2829371628452151</v>
+        <v>0.2554166061437613</v>
       </c>
       <c r="H9">
-        <v>0.446936576954208</v>
+        <v>0.1979170822366498</v>
       </c>
       <c r="I9">
-        <v>0.4060255309874505</v>
+        <v>0.1602117036310067</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.7529314564872038</v>
+        <v>2.335963341562376</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.3262035431604247</v>
+        <v>1.001854271405982</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.383614539484284</v>
+        <v>0.9070740698169999</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1503280676075747</v>
+        <v>0.4379452446198258</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.03336310864197856</v>
+        <v>0.09906859299053394</v>
       </c>
       <c r="E10">
-        <v>0.1902030479960715</v>
+        <v>0.4069199124046747</v>
       </c>
       <c r="F10">
-        <v>0.4459222927189046</v>
+        <v>0.4302857996959162</v>
       </c>
       <c r="G10">
-        <v>0.2858191153492129</v>
+        <v>0.2897669676932395</v>
       </c>
       <c r="H10">
-        <v>0.4427534781430751</v>
+        <v>0.2047819657912981</v>
       </c>
       <c r="I10">
-        <v>0.3947493094137942</v>
+        <v>0.1384976794441424</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.8818548959150405</v>
+        <v>2.73465206438371</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.3822000098169411</v>
+        <v>1.195848623531873</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.381342580843352</v>
+        <v>0.9948237452936439</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.1602436500909192</v>
+        <v>0.4692015868318862</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.03552391845624925</v>
+        <v>0.1057496617523981</v>
       </c>
       <c r="E11">
-        <v>0.1969203447432335</v>
+        <v>0.4382737937034946</v>
       </c>
       <c r="F11">
-        <v>0.4489473689751975</v>
+        <v>0.4545390951520787</v>
       </c>
       <c r="G11">
-        <v>0.2874215255791626</v>
+        <v>0.3065213675909177</v>
       </c>
       <c r="H11">
-        <v>0.4411089459119353</v>
+        <v>0.2085474212733089</v>
       </c>
       <c r="I11">
-        <v>0.3899029553995907</v>
+        <v>0.1293334904838188</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.9402470342642459</v>
+        <v>2.916344950512439</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.4076886010403484</v>
+        <v>1.285007092763792</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.38145890488326</v>
+        <v>1.038470212520252</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.163996012638961</v>
+        <v>0.4810509488113439</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.0363406504953474</v>
+        <v>0.1082805478553865</v>
       </c>
       <c r="E12">
-        <v>0.1994884954958493</v>
+        <v>0.4503246261080065</v>
       </c>
       <c r="F12">
-        <v>0.4501453049877924</v>
+        <v>0.4639161818994282</v>
       </c>
       <c r="G12">
-        <v>0.28807040806619</v>
+        <v>0.3130439411409611</v>
       </c>
       <c r="H12">
-        <v>0.4405233680263052</v>
+        <v>0.2100727063455565</v>
       </c>
       <c r="I12">
-        <v>0.3881085240978766</v>
+        <v>0.125971210460134</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.9623207818058859</v>
+        <v>2.985214585512352</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.4173426438455436</v>
+        <v>1.318923171872285</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.381668726217185</v>
+        <v>1.055582519020192</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.1631879873116162</v>
+        <v>0.4784983360094657</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.03616482097658036</v>
+        <v>0.1077354272827051</v>
       </c>
       <c r="E13">
-        <v>0.1989343062618047</v>
+        <v>0.4477210144056087</v>
       </c>
       <c r="F13">
-        <v>0.4498849758677608</v>
+        <v>0.4618878049734789</v>
       </c>
       <c r="G13">
-        <v>0.2879287850065424</v>
+        <v>0.3116310059878629</v>
       </c>
       <c r="H13">
-        <v>0.4406478292673484</v>
+        <v>0.2097396720368607</v>
       </c>
       <c r="I13">
-        <v>0.3884931726479386</v>
+        <v>0.126690445207466</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.9575685200358635</v>
+        <v>2.97037899427616</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.41526338370997</v>
+        <v>1.311611516508393</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.381616157953545</v>
+        <v>1.051870285955005</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.1605524098143007</v>
+        <v>0.4701761569470619</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.03559114221984316</v>
+        <v>0.1059578579910863</v>
       </c>
       <c r="E14">
-        <v>0.1971311363570791</v>
+        <v>0.4392615371762147</v>
       </c>
       <c r="F14">
-        <v>0.4490448730982735</v>
+        <v>0.4553065894422943</v>
       </c>
       <c r="G14">
-        <v>0.2874740650570828</v>
+        <v>0.3070543208425107</v>
       </c>
       <c r="H14">
-        <v>0.4410600250173644</v>
+        <v>0.2086708737193845</v>
       </c>
       <c r="I14">
-        <v>0.3897545089446761</v>
+        <v>0.1290546772509518</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.9420638255623714</v>
+        <v>2.922009447529888</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.4084828044802578</v>
+        <v>1.287794170661527</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.381472842271108</v>
+        <v>1.039866053382127</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.1589377155893885</v>
+        <v>0.4650804032910685</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.03523954810584939</v>
+        <v>0.1048691797251422</v>
       </c>
       <c r="E15">
-        <v>0.1960298357060211</v>
+        <v>0.4341036495418038</v>
       </c>
       <c r="F15">
-        <v>0.4485371132732396</v>
+        <v>0.4513010334860468</v>
       </c>
       <c r="G15">
-        <v>0.2872010219862347</v>
+        <v>0.3042746438825361</v>
       </c>
       <c r="H15">
-        <v>0.4413173480225794</v>
+        <v>0.2080293629861671</v>
       </c>
       <c r="I15">
-        <v>0.3905324256865623</v>
+        <v>0.1305170675083351</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.9325617536523509</v>
+        <v>2.892390964832458</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.4043297681443647</v>
+        <v>1.273226087084723</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.38140665823633</v>
+        <v>1.032590699102144</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.1496797312675255</v>
+        <v>0.4359042546197713</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.03322168453372853</v>
+        <v>0.09863206834726412</v>
       </c>
       <c r="E16">
-        <v>0.1897674643758265</v>
+        <v>0.404894598304935</v>
       </c>
       <c r="F16">
-        <v>0.445731925331927</v>
+        <v>0.4287268588503395</v>
       </c>
       <c r="G16">
-        <v>0.2857202733019335</v>
+        <v>0.2886960576640547</v>
       </c>
       <c r="H16">
-        <v>0.442866152835407</v>
+        <v>0.2045494009830975</v>
       </c>
       <c r="I16">
-        <v>0.3950717337977614</v>
+        <v>0.1391113935301207</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.87803357350532</v>
+        <v>2.722786217310244</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.3805345685856594</v>
+        <v>1.190042126394502</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.381358153107129</v>
+        <v>0.99205041734362</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.1439961554062563</v>
+        <v>0.418025935247897</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.03198113403332314</v>
+        <v>0.09480686942488603</v>
       </c>
       <c r="E17">
-        <v>0.1859689717711532</v>
+        <v>0.3872702148343592</v>
       </c>
       <c r="F17">
-        <v>0.4441042774382922</v>
+        <v>0.4152039135902186</v>
       </c>
       <c r="G17">
-        <v>0.2848866454176289</v>
+        <v>0.2794389752196196</v>
       </c>
       <c r="H17">
-        <v>0.4438824832451758</v>
+        <v>0.2025839573627906</v>
       </c>
       <c r="I17">
-        <v>0.3979290334934285</v>
+        <v>0.1445702412670307</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.8445158574663481</v>
+        <v>2.618836358086696</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.3659408413753056</v>
+        <v>1.139260134692094</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.381623204216339</v>
+        <v>0.9681684975446956</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.140725685779671</v>
+        <v>0.4077492950749217</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.03126664103413646</v>
+        <v>0.09260694706438244</v>
       </c>
       <c r="E18">
-        <v>0.183799993393535</v>
+        <v>0.3772348972366402</v>
       </c>
       <c r="F18">
-        <v>0.4432023350968848</v>
+        <v>0.4075402887613393</v>
       </c>
       <c r="G18">
-        <v>0.2844345814359031</v>
+        <v>0.274219733177425</v>
       </c>
       <c r="H18">
-        <v>0.4444913686483645</v>
+        <v>0.2015135232032605</v>
       </c>
       <c r="I18">
-        <v>0.3995991353114978</v>
+        <v>0.1477768559726949</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.8252133561054507</v>
+        <v>2.559076708840337</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.3575483859152371</v>
+        <v>1.110135801721079</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.381883858662576</v>
+        <v>0.9547801370168827</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.1396181234974421</v>
+        <v>0.4042708279132086</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.03102456233528983</v>
+        <v>0.0918621159163564</v>
       </c>
       <c r="E19">
-        <v>0.1830683223905822</v>
+        <v>0.3738539960471527</v>
       </c>
       <c r="F19">
-        <v>0.4429028304847122</v>
+        <v>0.4049646838117482</v>
       </c>
       <c r="G19">
-        <v>0.2842862236155526</v>
+        <v>0.2724701895792805</v>
       </c>
       <c r="H19">
-        <v>0.4447017031143048</v>
+        <v>0.2011611990156723</v>
       </c>
       <c r="I19">
-        <v>0.4001691803368033</v>
+        <v>0.1488738798868821</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.8186737791294547</v>
+        <v>2.538847630014516</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.3547071022779917</v>
+        <v>1.100288582841301</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.381990682932212</v>
+        <v>0.9503054050673541</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.144601331277542</v>
+        <v>0.4199284191922033</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.0321132925695693</v>
+        <v>0.0952140409194584</v>
       </c>
       <c r="E20">
-        <v>0.1863716891261689</v>
+        <v>0.3891356865969797</v>
       </c>
       <c r="F20">
-        <v>0.444273999202224</v>
+        <v>0.4166314967522027</v>
       </c>
       <c r="G20">
-        <v>0.2849725476759914</v>
+        <v>0.2804134099948357</v>
       </c>
       <c r="H20">
-        <v>0.4437717760926745</v>
+        <v>0.2027869195321443</v>
       </c>
       <c r="I20">
-        <v>0.397622109665428</v>
+        <v>0.1439821830022949</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.8480863687086924</v>
+        <v>2.629898803169596</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.3674942175625731</v>
+        <v>1.144657097515413</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.381583787268738</v>
+        <v>0.9706744253953161</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.1613266113845384</v>
+        <v>0.4726201973689115</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.03575968719670186</v>
+        <v>0.10647994424491</v>
       </c>
       <c r="E21">
-        <v>0.1976601051691489</v>
+        <v>0.4417412949572395</v>
       </c>
       <c r="F21">
-        <v>0.4492902086670085</v>
+        <v>0.4572342799669613</v>
       </c>
       <c r="G21">
-        <v>0.2876064837224561</v>
+        <v>0.3083936406077186</v>
       </c>
       <c r="H21">
-        <v>0.4409379442022612</v>
+        <v>0.2089820501806372</v>
       </c>
       <c r="I21">
-        <v>0.3893829168341871</v>
+        <v>0.1283572694425952</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.946618974248338</v>
+        <v>2.936214788926804</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.4104743701930147</v>
+        <v>1.294785539124675</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.381510435186698</v>
+        <v>1.043375728117411</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.1722431335039687</v>
+        <v>0.5071362020790389</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.03813393686257882</v>
+        <v>0.113848431839827</v>
       </c>
       <c r="E22">
-        <v>0.2051804132196295</v>
+        <v>0.4771691157978637</v>
       </c>
       <c r="F22">
-        <v>0.4528740905994368</v>
+        <v>0.4849033409503392</v>
       </c>
       <c r="G22">
-        <v>0.2895732974638605</v>
+        <v>0.3277262783671944</v>
       </c>
       <c r="H22">
-        <v>0.4393025383601952</v>
+        <v>0.2136138450609621</v>
       </c>
       <c r="I22">
-        <v>0.3842358336755511</v>
+        <v>0.1187777204044269</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.010793120207552</v>
+        <v>3.136807687129078</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.4385763532617091</v>
+        <v>1.393811052673598</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.382428936076565</v>
+        <v>1.09432103275023</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.1664181816025234</v>
+        <v>0.4887060801938361</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.03686758318411876</v>
+        <v>0.1099150443881456</v>
       </c>
       <c r="E23">
-        <v>0.201153538805336</v>
+        <v>0.458157656253249</v>
       </c>
       <c r="F23">
-        <v>0.4509333226352226</v>
+        <v>0.4700264437224462</v>
       </c>
       <c r="G23">
-        <v>0.2885010594498283</v>
+        <v>0.3173068652111368</v>
       </c>
       <c r="H23">
-        <v>0.4401555549180358</v>
+        <v>0.2110859926868187</v>
       </c>
       <c r="I23">
-        <v>0.3869611634883561</v>
+        <v>0.1238307938379601</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.9765629695094162</v>
+        <v>3.029704255292415</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.4235767552937517</v>
+        <v>1.34086813215535</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.381850145884698</v>
+        <v>1.066799836247128</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.1443277402998433</v>
+        <v>0.419068300685268</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.03205354769110613</v>
+        <v>0.09502996110609274</v>
       </c>
       <c r="E24">
-        <v>0.1861895744519444</v>
+        <v>0.3882920056507047</v>
       </c>
       <c r="F24">
-        <v>0.4441971626712089</v>
+        <v>0.4159857422199664</v>
       </c>
       <c r="G24">
-        <v>0.284933626553169</v>
+        <v>0.279972549084647</v>
       </c>
       <c r="H24">
-        <v>0.443821750220863</v>
+        <v>0.2026949754489493</v>
       </c>
       <c r="I24">
-        <v>0.3977607845762203</v>
+        <v>0.1442478319621965</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.8464722423972546</v>
+        <v>2.62489746537824</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.3667919434285665</v>
+        <v>1.142216911463052</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.381601270438296</v>
+        <v>0.9695404347793328</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.1204459984245432</v>
+        <v>0.3441903121063348</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.02682425620974271</v>
+        <v>0.07898100640919381</v>
       </c>
       <c r="E25">
-        <v>0.1706519454576849</v>
+        <v>0.3167522469441053</v>
       </c>
       <c r="F25">
-        <v>0.4382396649420883</v>
+        <v>0.3620107542909281</v>
       </c>
       <c r="G25">
-        <v>0.282132983732609</v>
+        <v>0.2436679051519164</v>
       </c>
       <c r="H25">
-        <v>0.448706032422038</v>
+        <v>0.1959149541512275</v>
       </c>
       <c r="I25">
-        <v>0.4104289768271001</v>
+        <v>0.1688068628000119</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.7052357031759016</v>
+        <v>2.189311228637138</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.3055969885380421</v>
+        <v>0.9310773697018178</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.385467845242147</v>
+        <v>0.8777632577939727</v>
       </c>
     </row>
   </sheetData>
